--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_neutralize.xlsx
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.0008277740155342353</v>
+        <v>-6.589982312074782E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.0001381973012919058</v>
+        <v>0.0009209769325350141</v>
       </c>
       <c r="D3">
-        <v>-0.0008690821494280887</v>
+        <v>-0.0005807330520729182</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -438,16 +438,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0001818274756377921</v>
+        <v>1.558526111197391E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001941044813361743</v>
+        <v>0.0002339510337425063</v>
       </c>
       <c r="E4">
-        <v>-0.0004516902997333769</v>
+        <v>0.0002794739972964764</v>
       </c>
       <c r="F4">
-        <v>-0.0006554437102119002</v>
+        <v>-0.0005865038752885797</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -456,19 +456,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0004335756680932623</v>
+        <v>0.0006976580938151425</v>
       </c>
       <c r="D5">
-        <v>-7.618563935914338E-05</v>
+        <v>0.0003115076231081841</v>
       </c>
       <c r="E5">
-        <v>2.55776543152958E-05</v>
+        <v>0.000338158756017406</v>
       </c>
       <c r="F5">
-        <v>-3.862163620151815E-05</v>
+        <v>-0.0002507345037955464</v>
       </c>
       <c r="G5">
-        <v>-0.0002827438421849847</v>
+        <v>-0.0001522956885215059</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -477,19 +477,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0004319289649020115</v>
+        <v>0.0004112191216267145</v>
       </c>
       <c r="D6">
-        <v>0.0001881800656519131</v>
+        <v>0.0002848713689248716</v>
       </c>
       <c r="E6">
-        <v>-7.14625180483165E-05</v>
+        <v>0.0003316156517608438</v>
       </c>
       <c r="F6">
-        <v>1.373948122528704E-05</v>
+        <v>-5.096259526834068E-05</v>
       </c>
       <c r="G6">
-        <v>1.359199596920813E-06</v>
+        <v>-4.324968952430577E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -498,19 +498,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0003127808749120666</v>
+        <v>0.0004925743616943704</v>
       </c>
       <c r="D7">
-        <v>0.0001413198354549179</v>
+        <v>0.0009162422043062563</v>
       </c>
       <c r="E7">
-        <v>-0.0001465745202850953</v>
+        <v>0.0003452500695435135</v>
       </c>
       <c r="F7">
-        <v>-0.0001299493832363289</v>
+        <v>0.0002175135123700356</v>
       </c>
       <c r="G7">
-        <v>8.58883577350864E-05</v>
+        <v>7.78380248079818E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02548155721997974</v>
+        <v>0.02033973679003367</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -530,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01355484185604298</v>
+        <v>0.017392614570251</v>
       </c>
       <c r="D9">
-        <v>0.01792725526919126</v>
+        <v>0.01537732667243574</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -542,16 +542,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01064082528246927</v>
+        <v>0.01174251303609784</v>
       </c>
       <c r="D10">
-        <v>0.01213794720776261</v>
+        <v>0.01240918352614991</v>
       </c>
       <c r="E10">
-        <v>0.01091421496476163</v>
+        <v>0.01123648926296391</v>
       </c>
       <c r="F10">
-        <v>0.0126603625021257</v>
+        <v>0.01190166834505566</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -560,19 +560,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01063113242365976</v>
+        <v>0.01109297929135459</v>
       </c>
       <c r="D11">
-        <v>0.01097163416747111</v>
+        <v>0.00977376131991505</v>
       </c>
       <c r="E11">
-        <v>0.009720075652026514</v>
+        <v>0.009551962868334667</v>
       </c>
       <c r="F11">
-        <v>0.009201792454359025</v>
+        <v>0.009083880450765369</v>
       </c>
       <c r="G11">
-        <v>0.009315451504489472</v>
+        <v>0.008828725043404345</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -581,19 +581,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01168399847089783</v>
+        <v>0.0134668886650387</v>
       </c>
       <c r="D12">
-        <v>0.01251580896448579</v>
+        <v>0.00923964848463951</v>
       </c>
       <c r="E12">
-        <v>0.008854402818678136</v>
+        <v>0.009143105193808416</v>
       </c>
       <c r="F12">
-        <v>0.008600873396716837</v>
+        <v>0.008420155925137406</v>
       </c>
       <c r="G12">
-        <v>0.008401626209723494</v>
+        <v>0.00823294782857273</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -602,19 +602,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009420539495324481</v>
+        <v>0.01014616607801583</v>
       </c>
       <c r="D13">
-        <v>0.01211797293642191</v>
+        <v>0.009531070772073037</v>
       </c>
       <c r="E13">
-        <v>0.007972790942515139</v>
+        <v>0.008794418038452276</v>
       </c>
       <c r="F13">
-        <v>0.007611956731005179</v>
+        <v>0.008626677352200974</v>
       </c>
       <c r="G13">
-        <v>0.007687919440449595</v>
+        <v>0.008550910184811283</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.197010215697148</v>
+        <v>-0.01568415790273798</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -634,10 +634,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>-0.03289095770747359</v>
+        <v>0.2191925099433333</v>
       </c>
       <c r="D15">
-        <v>-0.2068415515638851</v>
+        <v>-0.1382144663933545</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -646,16 +646,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.04327493920179451</v>
+        <v>0.003709292144649791</v>
       </c>
       <c r="D16">
-        <v>0.04619686655800948</v>
+        <v>0.0556803460307165</v>
       </c>
       <c r="E16">
-        <v>-0.1075022913365437</v>
+        <v>0.0665148113565614</v>
       </c>
       <c r="F16">
-        <v>-0.1559956030304323</v>
+        <v>-0.139587922318682</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -664,19 +664,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.1031910090061964</v>
+        <v>0.1660426263280039</v>
       </c>
       <c r="D17">
-        <v>-0.01813218216747612</v>
+        <v>0.07413881429974782</v>
       </c>
       <c r="E17">
-        <v>0.006087481727040399</v>
+        <v>0.08048178393214263</v>
       </c>
       <c r="F17">
-        <v>-0.009191949415961321</v>
+        <v>-0.05967481190334004</v>
       </c>
       <c r="G17">
-        <v>-0.06729303444002635</v>
+        <v>-0.03624637386811842</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -685,19 +685,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1027990936466787</v>
+        <v>0.09787015094715805</v>
       </c>
       <c r="D18">
-        <v>0.04478685562515532</v>
+        <v>0.06779938580411943</v>
       </c>
       <c r="E18">
-        <v>-0.01700807929549933</v>
+        <v>0.07892452511908081</v>
       </c>
       <c r="F18">
-        <v>0.003269996531618316</v>
+        <v>-0.01212909767386508</v>
       </c>
       <c r="G18">
-        <v>0.0003234895040671536</v>
+        <v>-0.01029342610678478</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -706,19 +706,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.07444184822907186</v>
+        <v>0.1172326980832601</v>
       </c>
       <c r="D19">
-        <v>0.03363412083827045</v>
+        <v>0.218065644624889</v>
       </c>
       <c r="E19">
-        <v>-0.03488473582785268</v>
+        <v>0.08216951655135621</v>
       </c>
       <c r="F19">
-        <v>-0.03092795321024628</v>
+        <v>0.05176821594406848</v>
       </c>
       <c r="G19">
-        <v>0.02044142914095056</v>
+        <v>0.01852544990429967</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.5011575795398266</v>
+        <v>-0.04998358463673136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -738,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>-0.1572872740501676</v>
+        <v>0.8169065125092518</v>
       </c>
       <c r="D21">
-        <v>-0.7478861760809064</v>
+        <v>-0.5826183814221906</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.2636165521231764</v>
+        <v>0.02047582976926195</v>
       </c>
       <c r="D22">
-        <v>0.2467054799858862</v>
+        <v>0.2908507844188636</v>
       </c>
       <c r="E22">
-        <v>-0.6384644773785533</v>
+        <v>0.3837065775945055</v>
       </c>
       <c r="F22">
-        <v>-0.7986890638014016</v>
+        <v>-0.7602414080667006</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -768,19 +768,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.6291784695114826</v>
+        <v>0.9702483510275256</v>
       </c>
       <c r="D23">
-        <v>-0.107124862328446</v>
+        <v>0.4916945883558438</v>
       </c>
       <c r="E23">
-        <v>0.04059565443506265</v>
+        <v>0.546155724661343</v>
       </c>
       <c r="F23">
-        <v>-0.06475103484111681</v>
+        <v>-0.4258250148455102</v>
       </c>
       <c r="G23">
-        <v>-0.4682499336948636</v>
+        <v>-0.2661203558959014</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -789,19 +789,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.5703078055473627</v>
+        <v>0.4710798302896487</v>
       </c>
       <c r="D24">
-        <v>0.2319546955757775</v>
+        <v>0.4756437910580817</v>
       </c>
       <c r="E24">
-        <v>-0.1245109416815419</v>
+        <v>0.5595382528948567</v>
       </c>
       <c r="F24">
-        <v>0.02464428703957865</v>
+        <v>-0.09337269220936596</v>
       </c>
       <c r="G24">
-        <v>0.002495791836391076</v>
+        <v>-0.08104311201111611</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -810,19 +810,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.5122157094520777</v>
+        <v>0.7489594674020609</v>
       </c>
       <c r="D25">
-        <v>0.1799126180604245</v>
+        <v>1.483054382922306</v>
       </c>
       <c r="E25">
-        <v>-0.2836198242470694</v>
+        <v>0.6056408321527088</v>
       </c>
       <c r="F25">
-        <v>-0.2633700524212179</v>
+        <v>0.3889834865336222</v>
       </c>
       <c r="G25">
-        <v>0.1723510578710876</v>
+        <v>0.1404326013127356</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.9035042772376853</v>
+        <v>-0.6515483254282703</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -842,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.4316804185112993</v>
+        <v>-0.2491322220040912</v>
       </c>
       <c r="D27">
-        <v>-0.900568367914154</v>
+        <v>-0.6972535403109218</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -854,16 +854,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.2928016170113978</v>
+        <v>-0.3332526350766135</v>
       </c>
       <c r="D28">
-        <v>-0.2692739822374896</v>
+        <v>-0.2826375213123628</v>
       </c>
       <c r="E28">
-        <v>-0.6475226073220108</v>
+        <v>-0.3118907496188697</v>
       </c>
       <c r="F28">
-        <v>-0.7506694128632424</v>
+        <v>-0.8305824281929086</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -872,19 +872,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.2455725155786723</v>
+        <v>-0.2185641860134653</v>
       </c>
       <c r="D29">
-        <v>-0.2962746091982964</v>
+        <v>-0.2746756479058958</v>
       </c>
       <c r="E29">
-        <v>-0.2494745888501304</v>
+        <v>-0.2886357791382209</v>
       </c>
       <c r="F29">
-        <v>-0.4340669368977044</v>
+        <v>-0.5011839436902851</v>
       </c>
       <c r="G29">
-        <v>-0.4861954458544676</v>
+        <v>-0.3631326718535873</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -893,19 +893,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.2488317555103684</v>
+        <v>-0.2174312543604002</v>
       </c>
       <c r="D30">
-        <v>-0.2330415229906799</v>
+        <v>-0.2099839817483682</v>
       </c>
       <c r="E30">
-        <v>-0.2794766972793578</v>
+        <v>-0.2147371687573426</v>
       </c>
       <c r="F30">
-        <v>-0.2608666720350338</v>
+        <v>-0.3364232448194082</v>
       </c>
       <c r="G30">
-        <v>-0.2885975655079923</v>
+        <v>-0.348523196191218</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -914,19 +914,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.24903380360531</v>
+        <v>-0.1300271845895431</v>
       </c>
       <c r="D31">
-        <v>-0.2546069179220578</v>
+        <v>-0.1390897000590302</v>
       </c>
       <c r="E31">
-        <v>-0.2997424508836892</v>
+        <v>-0.275763525712212</v>
       </c>
       <c r="F31">
-        <v>-0.3077555172835554</v>
+        <v>-0.3015357468272127</v>
       </c>
       <c r="G31">
-        <v>-0.2719853414889543</v>
+        <v>-0.3096779384920362</v>
       </c>
     </row>
   </sheetData>
